--- a/Processos.xlsx
+++ b/Processos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANTONIEL ARQUIVOS\TCC\Projeto Integrado_Automação de Processos Robóticos (RPA) na Área Jurídica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoniel_Souza\Desktop\RPA_Juridico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8D7B50-AA9A-45E8-AEDE-81C9913D088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B1B4C9-D6AA-4CB4-8B46-33E0E9B604D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="630" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>Nome_Contraparte</t>
   </si>
@@ -47,13 +47,59 @@
   </si>
   <si>
     <t>João Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 30.000,00</t>
+  </si>
+  <si>
+    <t>Procedimento do Juizado Especial Cível</t>
+  </si>
+  <si>
+    <t>Foro
+ Foro da Cidade</t>
+  </si>
+  <si>
+    <t>Juiz
+ Juiz Teste 
+                        Mais
+                        Recolher</t>
+  </si>
+  <si>
+    <t>Conclusos para Sentença</t>
+  </si>
+  <si>
+    <t>Luan Isaac Sebastião Brito</t>
+  </si>
+  <si>
+    <t>Stella Raquel Catarina</t>
+  </si>
+  <si>
+    <t>Elias Isaac Brito</t>
+  </si>
+  <si>
+    <t>Daniel Levi Caleb Moreira</t>
+  </si>
+  <si>
+    <t>Jaqueline Vanessa Luna</t>
+  </si>
+  <si>
+    <t>Danilo Bryan Moreira</t>
+  </si>
+  <si>
+    <t>Raimunda Emilly</t>
+  </si>
+  <si>
+    <t>Paulo Breno Benjamin Gonçalves</t>
+  </si>
+  <si>
+    <t>Hadassa Manuela Gonçalves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +115,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,8 +135,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,14 +150,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE7E4E4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,59 +457,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>123456789012</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="2">
+        <v>123456789012</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>123456789012</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>123456789012</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>123456789012</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>123456789012</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>123456789012</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>123456789012</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>123456789012</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2">
+        <v>123456789012</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>123456789012</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
